--- a/sourceCode/GiamSat.API/publishDeploy/UI/wwwroot/templateXLS/TemplateReport.xlsx
+++ b/sourceCode/GiamSat.API/publishDeploy/UI/wwwroot/templateXLS/TemplateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20240219_CtyAldila_GiamSatLoOven\sourceCode\GiamSat.API\GiamSat.UI\wwwroot\templateXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37431225-4236-463F-91D7-EDA6DAF9DF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DFD848-D123-4F31-9BFF-7707A63B1829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{70B9167A-DE84-4E5F-A7C3-3307051FDD43}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BaoCao" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BaoCao!$A$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BaoCao!$A$3:$F$3</definedName>
     <definedName name="DataLogModel">BaoCao!$C$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Thời gian</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Nhiệt độ (oC)</t>
   </si>
   <si>
-    <t>BÁO CÁO</t>
-  </si>
-  <si>
     <t>Thời gian:…...</t>
   </si>
   <si>
@@ -50,6 +47,12 @@
   </si>
   <si>
     <t>Step</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHẠY LÒ OVEN</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AC7305-486D-4A70-B8B3-669C55C0DF46}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,51 +465,56 @@
     <col min="1" max="1" width="20.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
     <col min="3" max="5" width="20.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E3" xr:uid="{A0AC7305-486D-4A70-B8B3-669C55C0DF46}"/>
+  <autoFilter ref="A3:F3" xr:uid="{A0AC7305-486D-4A70-B8B3-669C55C0DF46}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/sourceCode/GiamSat.API/publishDeploy/UI/wwwroot/templateXLS/TemplateReport.xlsx
+++ b/sourceCode/GiamSat.API/publishDeploy/UI/wwwroot/templateXLS/TemplateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20240219_CtyAldila_GiamSatLoOven\sourceCode\GiamSat.API\GiamSat.UI\wwwroot\templateXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DFD848-D123-4F31-9BFF-7707A63B1829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63087986-7A75-4513-A235-228AAE42B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{70B9167A-DE84-4E5F-A7C3-3307051FDD43}"/>
   </bookViews>
@@ -29,23 +29,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Thời gian</t>
   </si>
   <si>
-    <t>Nhiệt độ (oC)</t>
-  </si>
-  <si>
     <t>Thời gian:…...</t>
   </si>
   <si>
     <t>Lò Oven</t>
   </si>
   <si>
-    <t>SetPoint (oC)</t>
-  </si>
-  <si>
     <t>Step</t>
   </si>
   <si>
@@ -53,6 +47,15 @@
   </si>
   <si>
     <t>BÁO CÁO CHẠY LÒ OVEN</t>
+  </si>
+  <si>
+    <t>Nhiệt độ đặt (oC)</t>
+  </si>
+  <si>
+    <t>Nhiệt độ thực (oC)</t>
+  </si>
+  <si>
+    <t>Alarm</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,6 +117,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -137,7 +149,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AC7305-486D-4A70-B8B3-669C55C0DF46}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,55 +478,62 @@
     <col min="2" max="2" width="18.5703125" style="2" customWidth="1"/>
     <col min="3" max="5" width="20.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:F3" xr:uid="{A0AC7305-486D-4A70-B8B3-669C55C0DF46}"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/sourceCode/GiamSat.API/publishDeploy/UI/wwwroot/templateXLS/TemplateReport.xlsx
+++ b/sourceCode/GiamSat.API/publishDeploy/UI/wwwroot/templateXLS/TemplateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20240219_CtyAldila_GiamSatLoOven\sourceCode\GiamSat.API\GiamSat.UI\wwwroot\templateXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63087986-7A75-4513-A235-228AAE42B4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7B60C7-3D5F-4513-97DC-CDDD26144556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{70B9167A-DE84-4E5F-A7C3-3307051FDD43}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Thời gian</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Alarm</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AC7305-486D-4A70-B8B3-669C55C0DF46}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,9 +485,11 @@
     <col min="3" max="5" width="20.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -491,8 +499,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -502,8 +512,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -525,15 +537,21 @@
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:F3" xr:uid="{A0AC7305-486D-4A70-B8B3-669C55C0DF46}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/sourceCode/GiamSat.API/publishDeploy/UI/wwwroot/templateXLS/TemplateReport.xlsx
+++ b/sourceCode/GiamSat.API/publishDeploy/UI/wwwroot/templateXLS/TemplateReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20240219_CtyAldila_GiamSatLoOven\sourceCode\GiamSat.API\GiamSat.UI\wwwroot\templateXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7B60C7-3D5F-4513-97DC-CDDD26144556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C590A8-F137-4CA7-98CB-E018989B4FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{70B9167A-DE84-4E5F-A7C3-3307051FDD43}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Thời gian</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Ngưỡng Trên</t>
+  </si>
+  <si>
+    <t>Ngưỡng Dưới</t>
   </si>
 </sst>
 </file>
@@ -472,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AC7305-486D-4A70-B8B3-669C55C0DF46}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,9 +493,11 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -501,8 +509,10 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -514,8 +524,10 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -543,15 +555,21 @@
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:F3" xr:uid="{A0AC7305-486D-4A70-B8B3-669C55C0DF46}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
